--- a/1.1/FlowCharts/Payment Gateway.xlsx
+++ b/1.1/FlowCharts/Payment Gateway.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="20895" windowHeight="9915"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="20895" windowHeight="9915" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Flow" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -32,8 +32,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -46,6 +54,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -56,17 +70,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="RohanPageLayout" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1541,6 +1558,63 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="19050"/>
+          <a:ext cx="11325225" cy="11268075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1853,7 +1927,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
@@ -1871,11 +1945,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="2"/>
+  </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
